--- a/res3.xlsx
+++ b/res3.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1180333</t>
+          <t>2280333</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -493,7 +493,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1180255</t>
+          <t>1160255</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -511,7 +511,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1180274</t>
+          <t>11860274</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -529,7 +529,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1180056</t>
+          <t>11006</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -547,7 +547,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1180041</t>
+          <t>1180081</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1180212</t>
+          <t>1180232</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -705,7 +705,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1170343</t>
+          <t>1370343</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
